--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gordo\Dropbox\University work\Master\sem2\Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7225DE6F-6079-4058-A9F8-239B240FC4F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8430" xr2:uid="{CAB5070B-8CA6-4960-A3CA-FDEFC53F5912}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21468" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,8 +124,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,9 +148,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -284,8 +282,8 @@
                 <c:pt idx="7">
                   <c:v>43504</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>43504.5</c:v>
+                <c:pt idx="8">
+                  <c:v>43504</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43505</c:v>
@@ -317,7 +315,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FAAB-44A0-BBAE-00A59988DFAE}"/>
             </c:ext>
@@ -472,7 +470,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FAAB-44A0-BBAE-00A59988DFAE}"/>
             </c:ext>
@@ -488,11 +486,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="595358504"/>
-        <c:axId val="595360800"/>
+        <c:axId val="62897536"/>
+        <c:axId val="62911616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="595358504"/>
+        <c:axId val="62897536"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -535,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595360800"/>
+        <c:crossAx val="62911616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595360800"/>
+        <c:axId val="62911616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43487"/>
@@ -595,7 +593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595358504"/>
+        <c:crossAx val="62897536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -609,14 +607,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1216,7 +1214,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CED977-6692-49AB-AD76-47D67ABCBC5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29CED977-6692-49AB-AD76-47D67ABCBC5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,35 +1524,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1B03B-9A41-4FAB-99F8-A88E25DBE952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1565,7 +1563,7 @@
       <c r="B2" s="1">
         <v>43487</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1576,7 +1574,7 @@
       <c r="B3" s="1">
         <v>43488</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1587,7 +1585,7 @@
       <c r="B4" s="1">
         <v>43488</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1598,7 +1596,7 @@
       <c r="B5" s="1">
         <v>43494</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1609,7 +1607,7 @@
       <c r="B6" s="1">
         <v>43495</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1620,7 +1618,7 @@
       <c r="B7" s="1">
         <v>43501</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +1629,7 @@
       <c r="B8" s="1">
         <v>43502</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1642,7 +1640,7 @@
       <c r="B9" s="1">
         <v>43504</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1650,10 +1648,10 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
-        <v>43504.5</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>43504</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1664,7 +1662,7 @@
       <c r="B11" s="1">
         <v>43505</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1675,7 +1673,7 @@
       <c r="B12" s="1">
         <v>43508</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1686,7 +1684,7 @@
       <c r="B13" s="1">
         <v>43508</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1697,7 +1695,7 @@
       <c r="B14" s="1">
         <v>43515</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1708,7 +1706,7 @@
       <c r="B15" s="1">
         <v>43515</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1719,7 +1717,7 @@
       <c r="B16" s="1">
         <v>43518</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1730,7 +1728,7 @@
       <c r="B17" s="1">
         <v>43518</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1741,7 +1739,7 @@
       <c r="B18" s="1">
         <v>43518</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1752,12 +1750,12 @@
       <c r="B19" s="1">
         <v>43522</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>43487</v>
       </c>
     </row>
@@ -1768,6 +1766,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>